--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1342.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1342.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118170517156296</v>
+        <v>1.164069890975952</v>
       </c>
       <c r="B1">
-        <v>2.607041559407434</v>
+        <v>2.575162172317505</v>
       </c>
       <c r="C1">
-        <v>4.454421017698815</v>
+        <v>9.502006530761719</v>
       </c>
       <c r="D1">
-        <v>2.507616808933085</v>
+        <v>2.111528873443604</v>
       </c>
       <c r="E1">
-        <v>1.188996858823512</v>
+        <v>1.234969019889832</v>
       </c>
     </row>
   </sheetData>
